--- a/Tool/DataTables/Datas/__tables__.xlsx
+++ b/Tool/DataTables/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\workspace\FlatBuffers\luban\luban_examples\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\workspace\TOS\TOS-Project\Tool\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C5C29A-2D7D-4A02-BBC3-FC549593CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3FD512-E302-448E-9C02-4DBE69C0057C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="1020" windowWidth="19200" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1150" yWindow="3190" windowWidth="23750" windowHeight="11960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>demo.Reward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +473,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -572,6 +576,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
